--- a/target/classes/LocatorsValue.xlsx
+++ b/target/classes/LocatorsValue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t xml:space="preserve">xpath Locators </t>
   </si>
@@ -248,6 +248,99 @@
   </si>
   <si>
     <t xml:space="preserve">//a[@title='Manage Fees']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Fees home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//p[text()='Manage Fees']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search text box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@id='mat-input-1']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//a[text()=' keyboard_arrow_right '])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Action Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//a[@ng-reflect-message='Edit Fee'])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose Fee Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//p[text()='Choose Fee Type ']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigned Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@class='fc-outer-wrapper']/div[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[text()='Start']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fee Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='feeName']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fee code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='feeCode']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fee Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@aria-label='Rich Text Editor, main']/p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fee Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[text()='Create New']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fee Category name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='CategoryName']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fee category description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//textarea[@name='CatDescription']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//span[text()='Save'])[3]/..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edit fee type name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edit fee type description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//textarea[@name='description']</t>
   </si>
 </sst>
 </file>
@@ -390,7 +483,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="60.61"/>
   </cols>
@@ -477,11 +570,11 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="69.88"/>
   </cols>
@@ -572,7 +665,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="124.69"/>
@@ -762,13 +855,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="75.6"/>
   </cols>
@@ -803,6 +896,134 @@
       </c>
       <c r="B4" s="0" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/LocatorsValue.xlsx
+++ b/target/classes/LocatorsValue.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
   <si>
     <t xml:space="preserve">xpath Locators </t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">Patrons Tab</t>
   </si>
   <si>
-    <t xml:space="preserve">//div[@id='ctl00_RadMenuMain']/div[1]/ul/li[2]</t>
+    <t xml:space="preserve">//div[@id='ctl00_RadMenuMain']/div/ul/li[2]/a</t>
   </si>
   <si>
     <t xml:space="preserve">Search Patrons</t>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">Choose Fee Type</t>
   </si>
   <si>
-    <t xml:space="preserve">//p[text()='Choose Fee Type ']</t>
+    <t xml:space="preserve">//a[text()='Choose Fee Type']</t>
   </si>
   <si>
     <t xml:space="preserve">Assigned Fee</t>
@@ -313,7 +313,7 @@
     <t xml:space="preserve">Fee Category</t>
   </si>
   <si>
-    <t xml:space="preserve">//button[text()='Create New']</t>
+    <t xml:space="preserve">(//span[text()='Edit'])[1]</t>
   </si>
   <si>
     <t xml:space="preserve">Fee Category name </t>
@@ -341,6 +341,144 @@
   </si>
   <si>
     <t xml:space="preserve">//textarea[@name='description']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denied Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='deniedPrice']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduced price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='reducedPrice']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@name='freePrice']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denied Price buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//mat-button-toggle-group[@name='deniedPriceType']/mat-button-toggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduced price buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//mat-button-toggle-group[@name='reducedPriceType']/mat-button-toggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free price buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//mat-button-toggle-group[@name='freePriceType']/mat-button-toggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//a[@id='pills-fixed-tab']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiered Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//a[@id='pills-tiered-tab']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//a[@id='pills-contact-tab']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount Due </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//input[@formcontrolname='amountDue'])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Scheduling check box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@class='mat-checkbox-inner-container'])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial Payment Toggle button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@class='mat-slide-toggle-bar'])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[text()='Next']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@formcontrolname='freePrice']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@formcontrolname='reducedPrice']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@formcontrolname='deniedPrice']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//mat-button-toggle-group[@formcontrolname='freePriceType']/mat-button-toggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduced Buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//mat-button-toggle-group[@formcontrolname='reducedPriceType']/mat-button-toggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denied Buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//mat-button-toggle-group[@formcontrolname='deniedPriceType']/mat-button-toggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//mat-label[@class='variable-fees']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Fee Type Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//span[text()='Edit'])[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warning Message Yes Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[text()='Yes']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//div[@class="ng-star-inserted"])[1]/p</t>
   </si>
 </sst>
 </file>
@@ -480,10 +618,10 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="B15 A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="60.61"/>
   </cols>
@@ -571,10 +709,10 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="B15 B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="69.88"/>
   </cols>
@@ -662,10 +800,10 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B15 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="124.69"/>
@@ -855,13 +993,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="75.6"/>
   </cols>
@@ -1024,6 +1162,190 @@
       </c>
       <c r="B20" s="0" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/LocatorsValue.xlsx
+++ b/target/classes/LocatorsValue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="158">
   <si>
     <t xml:space="preserve">xpath Locators </t>
   </si>
@@ -71,6 +71,24 @@
   </si>
   <si>
     <t xml:space="preserve">//span[@id='LabelError']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSWORD RESET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//a[text()='PASSWORD RESET ']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//a[text()='Privacy Policy'])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terms and Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(//a[text()='Terms &amp; Conditions'])[1]</t>
   </si>
   <si>
     <t xml:space="preserve">Home tab</t>
@@ -615,13 +633,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="60.61"/>
   </cols>
@@ -688,6 +706,30 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +754,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="69.88"/>
   </cols>
@@ -727,58 +769,58 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +845,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="124.69"/>
@@ -819,162 +861,162 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -995,11 +1037,11 @@
   </sheetPr>
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="75.6"/>
   </cols>
@@ -1014,338 +1056,338 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/LocatorsValue.xlsx
+++ b/target/classes/LocatorsValue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" state="visible" r:id="rId2"/>
@@ -331,7 +331,7 @@
     <t xml:space="preserve">Fee Category</t>
   </si>
   <si>
-    <t xml:space="preserve">//button[text()='Create New']</t>
+    <t xml:space="preserve">(//span[text()='Edit'])[1] </t>
   </si>
   <si>
     <t xml:space="preserve">Fee Category name </t>
@@ -484,7 +484,7 @@
     <t xml:space="preserve">Edit Fee Type Button</t>
   </si>
   <si>
-    <t xml:space="preserve">(//span[text()='Edit'])[1]</t>
+    <t xml:space="preserve">(//span[text()='Edit'])[2]</t>
   </si>
   <si>
     <t xml:space="preserve">Warning Message Yes Button</t>
@@ -635,11 +635,11 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="60.61"/>
   </cols>
@@ -754,7 +754,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="69.88"/>
   </cols>
@@ -845,7 +845,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="124.69"/>
@@ -1037,11 +1037,11 @@
   </sheetPr>
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="75.6"/>
   </cols>

--- a/target/classes/LocatorsValue.xlsx
+++ b/target/classes/LocatorsValue.xlsx
@@ -331,7 +331,7 @@
     <t xml:space="preserve">Fee Category</t>
   </si>
   <si>
-    <t xml:space="preserve">(//span[text()='Edit'])[1] </t>
+    <t xml:space="preserve">//button[text()='Create New']</t>
   </si>
   <si>
     <t xml:space="preserve">Fee Category name </t>
@@ -639,7 +639,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="60.61"/>
   </cols>
@@ -754,7 +754,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="69.88"/>
   </cols>
@@ -845,7 +845,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="124.69"/>
@@ -1041,7 +1041,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="75.6"/>
   </cols>

--- a/target/classes/LocatorsValue.xlsx
+++ b/target/classes/LocatorsValue.xlsx
@@ -636,7 +636,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="B15 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -751,7 +751,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="B15 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -842,7 +842,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1037,7 +1037,7 @@
   </sheetPr>
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/target/classes/LocatorsValue.xlsx
+++ b/target/classes/LocatorsValue.xlsx
@@ -283,13 +283,13 @@
     <t xml:space="preserve">First School</t>
   </si>
   <si>
-    <t xml:space="preserve">(//a[text()=' keyboard_arrow_right '])[1]</t>
+    <t xml:space="preserve">(//a[text()=' keyboard_arrow_right '])[2]</t>
   </si>
   <si>
     <t xml:space="preserve">Edit Action Button</t>
   </si>
   <si>
-    <t xml:space="preserve">(//a[@ng-reflect-message='Edit Fee'])[1]</t>
+    <t xml:space="preserve">(//a[@ng-reflect-message='Edit Fee'])[2]</t>
   </si>
   <si>
     <t xml:space="preserve">Choose Fee Type</t>
@@ -636,7 +636,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="B15 A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -751,7 +751,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="B15 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -842,7 +842,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/target/classes/LocatorsValue.xlsx
+++ b/target/classes/LocatorsValue.xlsx
@@ -331,7 +331,7 @@
     <t xml:space="preserve">Fee Category</t>
   </si>
   <si>
-    <t xml:space="preserve">//button[text()='Create New']</t>
+    <t xml:space="preserve">(//div[@class='row'])[3]/div[2]/button</t>
   </si>
   <si>
     <t xml:space="preserve">Fee Category name </t>
@@ -484,7 +484,7 @@
     <t xml:space="preserve">Edit Fee Type Button</t>
   </si>
   <si>
-    <t xml:space="preserve">(//span[text()='Edit'])[2]</t>
+    <t xml:space="preserve">(//div[@class='row'])[4]/div[2]/button</t>
   </si>
   <si>
     <t xml:space="preserve">Warning Message Yes Button</t>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/target/classes/LocatorsValue.xlsx
+++ b/target/classes/LocatorsValue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="180">
   <si>
     <t xml:space="preserve">xpath Locators </t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">Home tab</t>
   </si>
   <si>
-    <t xml:space="preserve">//a[@title='Home Page']</t>
+    <t xml:space="preserve">//div[@id='ctl00_RadMenuMain']/div/ul/li[1]/a</t>
   </si>
   <si>
     <t xml:space="preserve">Arrow Button</t>
@@ -131,6 +131,30 @@
   </si>
   <si>
     <t xml:space="preserve">//input[@id='ctl00_ContentBody_SearchString']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurse Tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@id='ctl00_RadMenuMain']/div/ul/li[4]/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@id='ctl00_RadMenuMain']/div/ul/li[5]/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@id='ctl00_RadMenuMain']/div/ul/li[6]/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School Programs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@id='ctl00_RadMenuMain']/div/ul/li[7]/a</t>
   </si>
   <si>
     <t xml:space="preserve">first patron</t>
@@ -681,7 +705,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="60.61"/>
   </cols>
@@ -790,13 +814,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="69.88"/>
   </cols>
@@ -863,6 +887,38 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -887,7 +943,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="124.69"/>
@@ -903,146 +959,146 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,15 +1106,15 @@
         <v>32</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1079,11 +1135,11 @@
   </sheetPr>
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="75.6"/>
   </cols>
@@ -1098,394 +1154,394 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
